--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AJAY\GITHUB\Leetcode_solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2CC35-7335-4FA4-8AA2-B4D33D66EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947CFAA0-221A-4F9A-BAF8-42AA6A5AB3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="726">
   <si>
     <t>Tag</t>
   </si>
@@ -1963,9 +1963,6 @@
     <t xml:space="preserve">144. Binary Tree Preorder Traversal  </t>
   </si>
   <si>
-    <t xml:space="preserve">222. Count Complete Tree Nodes </t>
-  </si>
-  <si>
     <t xml:space="preserve">226. Invert Binary Tree </t>
   </si>
   <si>
@@ -2198,6 +2195,9 @@
   </si>
   <si>
     <t>Solved</t>
+  </si>
+  <si>
+    <t>do later</t>
   </si>
 </sst>
 </file>
@@ -2574,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="F385" sqref="F385"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,13 +2627,13 @@
         <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,13 +2647,13 @@
         <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,16 +2667,16 @@
         <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,16 +2690,16 @@
         <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2713,16 +2713,16 @@
         <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2736,13 +2736,13 @@
         <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,13 +2756,13 @@
         <v>331</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,13 +2776,13 @@
         <v>332</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2796,13 +2796,13 @@
         <v>333</v>
       </c>
       <c r="D10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F10" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,13 +2816,13 @@
         <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,16 +2836,16 @@
         <v>335</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2859,13 +2859,13 @@
         <v>336</v>
       </c>
       <c r="D13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,13 +2879,13 @@
         <v>337</v>
       </c>
       <c r="D14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,13 +2899,13 @@
         <v>338</v>
       </c>
       <c r="D15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E15" t="s">
+        <v>704</v>
+      </c>
+      <c r="F15" t="s">
         <v>705</v>
-      </c>
-      <c r="F15" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2919,13 +2919,13 @@
         <v>339</v>
       </c>
       <c r="D16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,13 +2939,13 @@
         <v>340</v>
       </c>
       <c r="D17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,13 +2959,13 @@
         <v>341</v>
       </c>
       <c r="D18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E18" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" t="s">
         <v>705</v>
-      </c>
-      <c r="F18" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2979,13 +2979,13 @@
         <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2999,13 +2999,13 @@
         <v>343</v>
       </c>
       <c r="D20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,13 +3019,13 @@
         <v>344</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,16 +3039,16 @@
         <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F22" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3062,16 +3062,16 @@
         <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,16 +3085,16 @@
         <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3108,13 +3108,13 @@
         <v>348</v>
       </c>
       <c r="D25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E25" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F25" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,16 +3128,16 @@
         <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,16 +3151,16 @@
         <v>350</v>
       </c>
       <c r="D27" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E27" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3174,16 +3174,16 @@
         <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3197,13 +3197,13 @@
         <v>352</v>
       </c>
       <c r="D29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,13 +3217,13 @@
         <v>353</v>
       </c>
       <c r="D30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,13 +3237,13 @@
         <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3257,16 +3257,16 @@
         <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E32" t="s">
+        <v>704</v>
+      </c>
+      <c r="F32" t="s">
         <v>705</v>
       </c>
-      <c r="F32" t="s">
-        <v>706</v>
-      </c>
       <c r="G32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3280,13 +3280,13 @@
         <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,13 +3300,13 @@
         <v>357</v>
       </c>
       <c r="D34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3320,13 +3320,13 @@
         <v>358</v>
       </c>
       <c r="D35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,16 +3340,16 @@
         <v>359</v>
       </c>
       <c r="D36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3363,13 +3363,13 @@
         <v>360</v>
       </c>
       <c r="D37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,13 +3383,13 @@
         <v>361</v>
       </c>
       <c r="D38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,13 +3403,13 @@
         <v>362</v>
       </c>
       <c r="D39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3423,16 +3423,16 @@
         <v>363</v>
       </c>
       <c r="D40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,13 +3446,13 @@
         <v>364</v>
       </c>
       <c r="D41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,13 +3466,13 @@
         <v>365</v>
       </c>
       <c r="D42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,13 +3486,13 @@
         <v>366</v>
       </c>
       <c r="D43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3506,13 +3506,13 @@
         <v>367</v>
       </c>
       <c r="D44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E44" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F44" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3526,13 +3526,13 @@
         <v>368</v>
       </c>
       <c r="D45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3546,13 +3546,13 @@
         <v>369</v>
       </c>
       <c r="D46" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F46" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,13 +3566,13 @@
         <v>370</v>
       </c>
       <c r="D47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,13 +3586,13 @@
         <v>371</v>
       </c>
       <c r="D48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,13 +3606,13 @@
         <v>372</v>
       </c>
       <c r="D49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F49" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,16 +3626,16 @@
         <v>373</v>
       </c>
       <c r="D50" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E50" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F50" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G50" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,13 +3649,13 @@
         <v>374</v>
       </c>
       <c r="D51" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F51" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3669,16 +3669,16 @@
         <v>375</v>
       </c>
       <c r="D52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E52" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F52" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3692,13 +3692,13 @@
         <v>376</v>
       </c>
       <c r="D53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F53" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3712,13 +3712,13 @@
         <v>377</v>
       </c>
       <c r="D54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E54" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,13 +3732,13 @@
         <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,16 +3752,16 @@
         <v>379</v>
       </c>
       <c r="D56" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G56" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,13 +3775,13 @@
         <v>380</v>
       </c>
       <c r="D57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E57" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F57" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,13 +3795,13 @@
         <v>381</v>
       </c>
       <c r="D58" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3815,16 +3815,16 @@
         <v>382</v>
       </c>
       <c r="D59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G59" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,16 +3838,16 @@
         <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3861,16 +3861,16 @@
         <v>384</v>
       </c>
       <c r="D61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3884,16 +3884,16 @@
         <v>385</v>
       </c>
       <c r="D62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E62" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F62" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G62" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,13 +3907,13 @@
         <v>386</v>
       </c>
       <c r="D63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E63" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3927,16 +3927,16 @@
         <v>387</v>
       </c>
       <c r="D64" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3950,16 +3950,16 @@
         <v>388</v>
       </c>
       <c r="D65" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,16 +3973,16 @@
         <v>347</v>
       </c>
       <c r="D66" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G66" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,13 +3996,13 @@
         <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E67" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4016,16 +4016,16 @@
         <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E68" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F68" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G68" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4039,16 +4039,16 @@
         <v>391</v>
       </c>
       <c r="D69" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G69" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4062,16 +4062,16 @@
         <v>392</v>
       </c>
       <c r="D70" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E70" t="s">
+        <v>704</v>
+      </c>
+      <c r="F70" t="s">
         <v>705</v>
       </c>
-      <c r="F70" t="s">
-        <v>706</v>
-      </c>
       <c r="G70" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,16 +4085,16 @@
         <v>393</v>
       </c>
       <c r="D71" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E71" t="s">
+        <v>704</v>
+      </c>
+      <c r="F71" t="s">
         <v>705</v>
       </c>
-      <c r="F71" t="s">
-        <v>706</v>
-      </c>
       <c r="G71" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4108,16 +4108,16 @@
         <v>394</v>
       </c>
       <c r="D72" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E72" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F72" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G72" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4131,16 +4131,16 @@
         <v>395</v>
       </c>
       <c r="D73" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G73" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,16 +4154,16 @@
         <v>396</v>
       </c>
       <c r="D74" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E74" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F74" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G74" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,16 +4177,16 @@
         <v>397</v>
       </c>
       <c r="D75" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E75" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F75" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G75" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4200,13 +4200,13 @@
         <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E76" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F76" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,13 +4220,13 @@
         <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E77" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F77" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4240,16 +4240,16 @@
         <v>400</v>
       </c>
       <c r="D78" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E78" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F78" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G78" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4263,13 +4263,13 @@
         <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E79" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F79" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,16 +4283,16 @@
         <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E80" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F80" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G80" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4306,13 +4306,13 @@
         <v>403</v>
       </c>
       <c r="D81" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F81" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,13 +4326,13 @@
         <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E82" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F82" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4346,16 +4346,16 @@
         <v>405</v>
       </c>
       <c r="D83" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E83" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F83" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G83" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4369,13 +4369,13 @@
         <v>406</v>
       </c>
       <c r="D84" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,13 +4389,13 @@
         <v>407</v>
       </c>
       <c r="D85" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E85" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F85" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4409,13 +4409,13 @@
         <v>408</v>
       </c>
       <c r="D86" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E86" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F86" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4429,13 +4429,13 @@
         <v>409</v>
       </c>
       <c r="D87" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E87" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F87" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4449,13 +4449,13 @@
         <v>410</v>
       </c>
       <c r="D88" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E88" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F88" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4469,13 +4469,13 @@
         <v>411</v>
       </c>
       <c r="D89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E89" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F89" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,16 +4489,16 @@
         <v>412</v>
       </c>
       <c r="D90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E90" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G90" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4512,13 +4512,13 @@
         <v>413</v>
       </c>
       <c r="D91" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E91" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F91" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,13 +4532,13 @@
         <v>414</v>
       </c>
       <c r="D92" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E92" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F92" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4552,13 +4552,13 @@
         <v>415</v>
       </c>
       <c r="D93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E93" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F93" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,13 +4572,13 @@
         <v>416</v>
       </c>
       <c r="D94" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E94" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F94" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4592,13 +4592,13 @@
         <v>417</v>
       </c>
       <c r="D95" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E95" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F95" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,13 +4612,13 @@
         <v>418</v>
       </c>
       <c r="D96" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E96" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F96" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,16 +4632,16 @@
         <v>419</v>
       </c>
       <c r="D97" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E97" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F97" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G97" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4655,13 +4655,13 @@
         <v>420</v>
       </c>
       <c r="D98" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F98" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4675,16 +4675,16 @@
         <v>421</v>
       </c>
       <c r="D99" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E99" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F99" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G99" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4698,16 +4698,16 @@
         <v>422</v>
       </c>
       <c r="D100" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E100" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G100" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,13 +4721,13 @@
         <v>423</v>
       </c>
       <c r="D101" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E101" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F101" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4741,16 +4741,16 @@
         <v>424</v>
       </c>
       <c r="D102" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E102" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F102" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G102" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,13 +4764,13 @@
         <v>425</v>
       </c>
       <c r="D103" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E103" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F103" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,16 +4784,16 @@
         <v>426</v>
       </c>
       <c r="D104" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E104" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F104" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,13 +4807,13 @@
         <v>427</v>
       </c>
       <c r="D105" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E105" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F105" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4827,16 +4827,16 @@
         <v>428</v>
       </c>
       <c r="D106" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E106" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F106" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G106" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4850,13 +4850,13 @@
         <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E107" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F107" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4870,13 +4870,13 @@
         <v>430</v>
       </c>
       <c r="D108" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E108" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F108" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4890,13 +4890,13 @@
         <v>431</v>
       </c>
       <c r="D109" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E109" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F109" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4910,13 +4910,13 @@
         <v>432</v>
       </c>
       <c r="D110" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E110" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F110" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4930,13 +4930,13 @@
         <v>433</v>
       </c>
       <c r="D111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F111" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4950,13 +4950,13 @@
         <v>434</v>
       </c>
       <c r="D112" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E112" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F112" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4970,13 +4970,13 @@
         <v>435</v>
       </c>
       <c r="D113" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F113" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4990,13 +4990,13 @@
         <v>436</v>
       </c>
       <c r="D114" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E114" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F114" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,13 +5010,13 @@
         <v>437</v>
       </c>
       <c r="D115" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E115" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F115" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5030,13 +5030,13 @@
         <v>438</v>
       </c>
       <c r="D116" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E116" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F116" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,16 +5050,16 @@
         <v>439</v>
       </c>
       <c r="D117" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E117" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F117" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G117" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5073,13 +5073,13 @@
         <v>440</v>
       </c>
       <c r="D118" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E118" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F118" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5093,13 +5093,13 @@
         <v>441</v>
       </c>
       <c r="D119" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E119" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F119" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5113,13 +5113,13 @@
         <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F120" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5133,16 +5133,16 @@
         <v>443</v>
       </c>
       <c r="D121" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E121" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F121" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G121" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>444</v>
       </c>
       <c r="D122" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E122" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F122" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,13 +5176,13 @@
         <v>445</v>
       </c>
       <c r="D123" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E123" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5196,13 +5196,13 @@
         <v>401</v>
       </c>
       <c r="D124" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E124" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F124" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5216,13 +5216,13 @@
         <v>446</v>
       </c>
       <c r="D125" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E125" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F125" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5236,13 +5236,13 @@
         <v>447</v>
       </c>
       <c r="D126" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F126" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5256,13 +5256,13 @@
         <v>448</v>
       </c>
       <c r="D127" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F127" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5276,13 +5276,13 @@
         <v>449</v>
       </c>
       <c r="D128" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E128" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F128" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,13 +5296,13 @@
         <v>450</v>
       </c>
       <c r="D129" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E129" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F129" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5316,13 +5316,13 @@
         <v>451</v>
       </c>
       <c r="D130" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E130" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F130" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5336,16 +5336,16 @@
         <v>392</v>
       </c>
       <c r="D131" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E131" t="s">
+        <v>704</v>
+      </c>
+      <c r="F131" t="s">
         <v>705</v>
       </c>
-      <c r="F131" t="s">
-        <v>706</v>
-      </c>
       <c r="G131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,13 +5359,13 @@
         <v>452</v>
       </c>
       <c r="D132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E132" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F132" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,13 +5379,13 @@
         <v>453</v>
       </c>
       <c r="D133" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E133" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F133" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,13 +5399,13 @@
         <v>454</v>
       </c>
       <c r="D134" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E134" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F134" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5419,13 +5419,13 @@
         <v>455</v>
       </c>
       <c r="D135" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E135" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F135" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5439,13 +5439,13 @@
         <v>456</v>
       </c>
       <c r="D136" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E136" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F136" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5459,13 +5459,13 @@
         <v>457</v>
       </c>
       <c r="D137" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E137" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F137" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5479,13 +5479,13 @@
         <v>458</v>
       </c>
       <c r="D138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E138" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F138" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,13 +5499,13 @@
         <v>459</v>
       </c>
       <c r="D139" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E139" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F139" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,13 +5519,13 @@
         <v>460</v>
       </c>
       <c r="D140" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E140" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F140" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5539,13 +5539,13 @@
         <v>461</v>
       </c>
       <c r="D141" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E141" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F141" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5559,13 +5559,13 @@
         <v>462</v>
       </c>
       <c r="D142" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E142" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F142" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5579,13 +5579,13 @@
         <v>447</v>
       </c>
       <c r="D143" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E143" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F143" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5599,13 +5599,13 @@
         <v>463</v>
       </c>
       <c r="D144" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E144" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F144" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,13 +5619,13 @@
         <v>464</v>
       </c>
       <c r="D145" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E145" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F145" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5639,13 +5639,13 @@
         <v>465</v>
       </c>
       <c r="D146" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E146" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F146" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5659,13 +5659,13 @@
         <v>466</v>
       </c>
       <c r="D147" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E147" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F147" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5679,13 +5679,13 @@
         <v>451</v>
       </c>
       <c r="D148" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E148" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F148" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5699,13 +5699,13 @@
         <v>467</v>
       </c>
       <c r="D149" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E149" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F149" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,13 +5719,13 @@
         <v>468</v>
       </c>
       <c r="D150" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E150" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F150" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5739,13 +5739,13 @@
         <v>469</v>
       </c>
       <c r="D151" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F151" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5759,13 +5759,13 @@
         <v>470</v>
       </c>
       <c r="D152" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E152" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F152" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5779,13 +5779,13 @@
         <v>471</v>
       </c>
       <c r="D153" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E153" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F153" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5799,13 +5799,13 @@
         <v>453</v>
       </c>
       <c r="D154" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E154" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F154" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5819,13 +5819,13 @@
         <v>454</v>
       </c>
       <c r="D155" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F155" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5839,13 +5839,13 @@
         <v>472</v>
       </c>
       <c r="D156" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E156" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F156" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5859,13 +5859,13 @@
         <v>473</v>
       </c>
       <c r="D157" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E157" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F157" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,13 +5879,13 @@
         <v>474</v>
       </c>
       <c r="D158" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E158" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F158" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,13 +5899,13 @@
         <v>475</v>
       </c>
       <c r="D159" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E159" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F159" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5919,13 +5919,13 @@
         <v>457</v>
       </c>
       <c r="D160" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E160" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F160" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5939,13 +5939,13 @@
         <v>476</v>
       </c>
       <c r="D161" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E161" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F161" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5959,13 +5959,13 @@
         <v>403</v>
       </c>
       <c r="D162" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E162" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F162" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5979,13 +5979,13 @@
         <v>337</v>
       </c>
       <c r="D163" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E163" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F163" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -5999,13 +5999,13 @@
         <v>342</v>
       </c>
       <c r="D164" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6019,13 +6019,13 @@
         <v>477</v>
       </c>
       <c r="D165" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E165" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F165" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,13 +6039,13 @@
         <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,13 +6059,13 @@
         <v>478</v>
       </c>
       <c r="D167" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E167" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F167" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6079,13 +6079,13 @@
         <v>479</v>
       </c>
       <c r="D168" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E168" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F168" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6099,13 +6099,13 @@
         <v>480</v>
       </c>
       <c r="D169" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E169" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F169" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,13 +6119,13 @@
         <v>352</v>
       </c>
       <c r="D170" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E170" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F170" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6139,13 +6139,13 @@
         <v>353</v>
       </c>
       <c r="D171" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E171" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F171" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6159,13 +6159,13 @@
         <v>481</v>
       </c>
       <c r="D172" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E172" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F172" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,13 +6179,13 @@
         <v>482</v>
       </c>
       <c r="D173" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E173" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F173" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,13 +6199,13 @@
         <v>483</v>
       </c>
       <c r="D174" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E174" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F174" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6219,13 +6219,13 @@
         <v>484</v>
       </c>
       <c r="D175" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E175" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F175" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6239,13 +6239,13 @@
         <v>485</v>
       </c>
       <c r="D176" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E176" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F176" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6259,13 +6259,13 @@
         <v>486</v>
       </c>
       <c r="D177" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E177" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F177" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6279,13 +6279,13 @@
         <v>487</v>
       </c>
       <c r="D178" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E178" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F178" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6299,13 +6299,13 @@
         <v>488</v>
       </c>
       <c r="D179" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E179" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F179" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,13 +6319,13 @@
         <v>489</v>
       </c>
       <c r="D180" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E180" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F180" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6339,13 +6339,13 @@
         <v>416</v>
       </c>
       <c r="D181" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E181" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F181" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6359,13 +6359,13 @@
         <v>490</v>
       </c>
       <c r="D182" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E182" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F182" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6379,13 +6379,13 @@
         <v>491</v>
       </c>
       <c r="D183" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E183" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F183" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6399,13 +6399,13 @@
         <v>369</v>
       </c>
       <c r="D184" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E184" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F184" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6419,13 +6419,13 @@
         <v>492</v>
       </c>
       <c r="D185" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E185" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F185" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6439,13 +6439,13 @@
         <v>493</v>
       </c>
       <c r="D186" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F186" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6459,13 +6459,13 @@
         <v>494</v>
       </c>
       <c r="D187" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E187" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F187" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,13 +6479,13 @@
         <v>495</v>
       </c>
       <c r="D188" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E188" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F188" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6499,13 +6499,13 @@
         <v>496</v>
       </c>
       <c r="D189" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E189" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F189" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6519,16 +6519,16 @@
         <v>497</v>
       </c>
       <c r="D190" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E190" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F190" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G190" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,16 +6542,16 @@
         <v>498</v>
       </c>
       <c r="D191" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E191" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G191" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,16 +6565,16 @@
         <v>499</v>
       </c>
       <c r="D192" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E192" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F192" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G192" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6588,13 +6588,13 @@
         <v>500</v>
       </c>
       <c r="D193" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E193" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F193" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6608,16 +6608,16 @@
         <v>379</v>
       </c>
       <c r="D194" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E194" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F194" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G194" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6631,13 +6631,13 @@
         <v>501</v>
       </c>
       <c r="D195" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E195" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F195" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,16 +6651,16 @@
         <v>502</v>
       </c>
       <c r="D196" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E196" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F196" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G196" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,13 +6674,13 @@
         <v>503</v>
       </c>
       <c r="D197" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E197" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F197" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6694,13 +6694,13 @@
         <v>504</v>
       </c>
       <c r="D198" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E198" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F198" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6714,13 +6714,13 @@
         <v>505</v>
       </c>
       <c r="D199" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E199" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F199" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,13 +6734,13 @@
         <v>506</v>
       </c>
       <c r="D200" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E200" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F200" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6754,13 +6754,13 @@
         <v>360</v>
       </c>
       <c r="D201" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E201" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F201" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6774,13 +6774,13 @@
         <v>361</v>
       </c>
       <c r="D202" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E202" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F202" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6794,13 +6794,13 @@
         <v>507</v>
       </c>
       <c r="D203" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E203" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F203" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6814,13 +6814,13 @@
         <v>508</v>
       </c>
       <c r="D204" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E204" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F204" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6834,13 +6834,13 @@
         <v>509</v>
       </c>
       <c r="D205" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E205" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F205" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6854,13 +6854,13 @@
         <v>510</v>
       </c>
       <c r="D206" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E206" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F206" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6874,13 +6874,13 @@
         <v>414</v>
       </c>
       <c r="D207" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E207" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F207" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,13 +6894,13 @@
         <v>511</v>
       </c>
       <c r="D208" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E208" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F208" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6914,13 +6914,13 @@
         <v>512</v>
       </c>
       <c r="D209" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E209" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F209" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6934,13 +6934,13 @@
         <v>513</v>
       </c>
       <c r="D210" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E210" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F210" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6954,13 +6954,13 @@
         <v>514</v>
       </c>
       <c r="D211" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E211" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F211" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6974,13 +6974,13 @@
         <v>417</v>
       </c>
       <c r="D212" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E212" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F212" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6994,13 +6994,13 @@
         <v>515</v>
       </c>
       <c r="D213" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E213" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F213" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7014,13 +7014,13 @@
         <v>516</v>
       </c>
       <c r="D214" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E214" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F214" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7034,13 +7034,13 @@
         <v>517</v>
       </c>
       <c r="D215" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E215" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F215" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,16 +7054,16 @@
         <v>518</v>
       </c>
       <c r="D216" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E216" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F216" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G216" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7077,13 +7077,13 @@
         <v>519</v>
       </c>
       <c r="D217" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E217" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F217" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7097,13 +7097,13 @@
         <v>418</v>
       </c>
       <c r="D218" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E218" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F218" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7117,13 +7117,13 @@
         <v>520</v>
       </c>
       <c r="D219" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E219" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F219" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7137,16 +7137,16 @@
         <v>521</v>
       </c>
       <c r="D220" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E220" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F220" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G220" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7160,16 +7160,16 @@
         <v>522</v>
       </c>
       <c r="D221" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E221" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F221" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G221" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7183,13 +7183,13 @@
         <v>523</v>
       </c>
       <c r="D222" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E222" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F222" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7203,13 +7203,13 @@
         <v>524</v>
       </c>
       <c r="D223" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E223" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F223" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7223,13 +7223,13 @@
         <v>525</v>
       </c>
       <c r="D224" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E224" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F224" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7243,16 +7243,16 @@
         <v>526</v>
       </c>
       <c r="D225" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E225" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F225" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G225" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7266,13 +7266,13 @@
         <v>527</v>
       </c>
       <c r="D226" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E226" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F226" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7286,16 +7286,16 @@
         <v>528</v>
       </c>
       <c r="D227" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E227" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F227" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G227" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7309,13 +7309,13 @@
         <v>529</v>
       </c>
       <c r="D228" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E228" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F228" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7329,13 +7329,13 @@
         <v>530</v>
       </c>
       <c r="D229" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E229" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F229" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7349,13 +7349,13 @@
         <v>531</v>
       </c>
       <c r="D230" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E230" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F230" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7369,16 +7369,16 @@
         <v>532</v>
       </c>
       <c r="D231" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E231" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F231" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G231" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7392,16 +7392,16 @@
         <v>533</v>
       </c>
       <c r="D232" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E232" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F232" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G232" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7415,13 +7415,13 @@
         <v>465</v>
       </c>
       <c r="D233" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E233" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F233" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7435,16 +7435,16 @@
         <v>534</v>
       </c>
       <c r="D234" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E234" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F234" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G234" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7458,16 +7458,16 @@
         <v>535</v>
       </c>
       <c r="D235" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E235" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F235" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G235" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7481,16 +7481,16 @@
         <v>536</v>
       </c>
       <c r="D236" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E236" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F236" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G236" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7504,16 +7504,16 @@
         <v>537</v>
       </c>
       <c r="D237" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E237" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F237" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G237" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7527,16 +7527,16 @@
         <v>538</v>
       </c>
       <c r="D238" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E238" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F238" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G238" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7550,16 +7550,16 @@
         <v>539</v>
       </c>
       <c r="D239" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E239" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F239" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G239" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7573,13 +7573,13 @@
         <v>540</v>
       </c>
       <c r="D240" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E240" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F240" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7593,13 +7593,13 @@
         <v>541</v>
       </c>
       <c r="D241" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E241" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F241" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,13 +7613,13 @@
         <v>542</v>
       </c>
       <c r="D242" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E242" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F242" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7633,13 +7633,13 @@
         <v>543</v>
       </c>
       <c r="D243" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E243" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F243" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7653,13 +7653,13 @@
         <v>544</v>
       </c>
       <c r="D244" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E244" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F244" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7673,13 +7673,13 @@
         <v>545</v>
       </c>
       <c r="D245" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E245" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F245" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7693,13 +7693,13 @@
         <v>546</v>
       </c>
       <c r="D246" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E246" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F246" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7713,13 +7713,13 @@
         <v>547</v>
       </c>
       <c r="D247" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E247" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F247" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7733,13 +7733,13 @@
         <v>548</v>
       </c>
       <c r="D248" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E248" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F248" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7753,16 +7753,16 @@
         <v>549</v>
       </c>
       <c r="D249" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E249" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F249" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G249" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7776,13 +7776,13 @@
         <v>550</v>
       </c>
       <c r="D250" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E250" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F250" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7796,13 +7796,13 @@
         <v>551</v>
       </c>
       <c r="D251" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E251" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F251" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7816,13 +7816,13 @@
         <v>552</v>
       </c>
       <c r="D252" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E252" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F252" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,13 +7836,13 @@
         <v>553</v>
       </c>
       <c r="D253" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E253" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F253" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7856,13 +7856,13 @@
         <v>407</v>
       </c>
       <c r="D254" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E254" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F254" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7876,13 +7876,13 @@
         <v>554</v>
       </c>
       <c r="D255" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E255" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F255" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7896,13 +7896,13 @@
         <v>555</v>
       </c>
       <c r="D256" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E256" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F256" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7916,13 +7916,13 @@
         <v>556</v>
       </c>
       <c r="D257" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E257" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F257" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7936,13 +7936,13 @@
         <v>557</v>
       </c>
       <c r="D258" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E258" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F258" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,13 +7956,13 @@
         <v>558</v>
       </c>
       <c r="D259" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E259" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F259" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -7976,13 +7976,13 @@
         <v>488</v>
       </c>
       <c r="D260" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E260" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F260" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -7996,13 +7996,13 @@
         <v>489</v>
       </c>
       <c r="D261" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E261" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F261" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -8016,13 +8016,13 @@
         <v>559</v>
       </c>
       <c r="D262" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E262" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F262" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -8036,13 +8036,13 @@
         <v>560</v>
       </c>
       <c r="D263" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E263" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F263" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -8056,13 +8056,13 @@
         <v>494</v>
       </c>
       <c r="D264" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E264" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F264" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -8076,13 +8076,13 @@
         <v>561</v>
       </c>
       <c r="D265" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E265" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F265" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -8096,13 +8096,13 @@
         <v>562</v>
       </c>
       <c r="D266" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E266" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F266" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -8116,13 +8116,13 @@
         <v>404</v>
       </c>
       <c r="D267" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E267" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F267" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -8136,13 +8136,13 @@
         <v>493</v>
       </c>
       <c r="D268" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E268" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F268" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -8156,16 +8156,16 @@
         <v>563</v>
       </c>
       <c r="D269" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E269" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F269" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G269" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -8179,13 +8179,13 @@
         <v>564</v>
       </c>
       <c r="D270" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E270" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F270" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -8199,13 +8199,13 @@
         <v>565</v>
       </c>
       <c r="D271" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E271" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F271" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -8219,16 +8219,16 @@
         <v>566</v>
       </c>
       <c r="D272" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E272" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F272" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G272" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -8242,13 +8242,13 @@
         <v>567</v>
       </c>
       <c r="D273" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E273" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F273" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -8262,16 +8262,16 @@
         <v>568</v>
       </c>
       <c r="D274" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E274" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F274" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G274" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -8285,16 +8285,16 @@
         <v>569</v>
       </c>
       <c r="D275" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E275" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F275" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G275" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -8308,16 +8308,16 @@
         <v>570</v>
       </c>
       <c r="D276" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E276" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F276" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G276" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -8331,16 +8331,16 @@
         <v>571</v>
       </c>
       <c r="D277" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E277" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F277" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G277" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -8354,16 +8354,16 @@
         <v>572</v>
       </c>
       <c r="D278" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E278" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F278" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G278" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -8377,16 +8377,16 @@
         <v>573</v>
       </c>
       <c r="D279" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E279" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F279" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G279" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -8400,16 +8400,16 @@
         <v>502</v>
       </c>
       <c r="D280" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E280" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F280" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G280" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -8423,16 +8423,16 @@
         <v>574</v>
       </c>
       <c r="D281" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E281" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F281" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G281" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8446,13 +8446,13 @@
         <v>575</v>
       </c>
       <c r="D282" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E282" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F282" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8466,16 +8466,16 @@
         <v>576</v>
       </c>
       <c r="D283" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E283" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F283" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G283" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -8489,16 +8489,16 @@
         <v>577</v>
       </c>
       <c r="D284" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E284" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F284" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G284" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -8512,16 +8512,16 @@
         <v>578</v>
       </c>
       <c r="D285" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E285" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F285" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G285" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -8535,16 +8535,16 @@
         <v>522</v>
       </c>
       <c r="D286" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E286" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F286" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G286" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -8558,16 +8558,16 @@
         <v>579</v>
       </c>
       <c r="D287" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E287" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F287" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G287" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -8581,13 +8581,13 @@
         <v>580</v>
       </c>
       <c r="D288" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E288" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F288" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8601,16 +8601,16 @@
         <v>581</v>
       </c>
       <c r="D289" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E289" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F289" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G289" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -8624,13 +8624,13 @@
         <v>582</v>
       </c>
       <c r="D290" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E290" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F290" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -8644,16 +8644,16 @@
         <v>583</v>
       </c>
       <c r="D291" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E291" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F291" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G291" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8667,13 +8667,13 @@
         <v>339</v>
       </c>
       <c r="D292" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E292" t="s">
+        <v>707</v>
+      </c>
+      <c r="F292" t="s">
         <v>708</v>
-      </c>
-      <c r="F292" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -8687,13 +8687,13 @@
         <v>584</v>
       </c>
       <c r="D293" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E293" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F293" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -8707,16 +8707,16 @@
         <v>585</v>
       </c>
       <c r="D294" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E294" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F294" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G294" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -8730,16 +8730,16 @@
         <v>537</v>
       </c>
       <c r="D295" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E295" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F295" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G295" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8753,16 +8753,16 @@
         <v>586</v>
       </c>
       <c r="D296" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E296" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F296" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G296" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -8776,16 +8776,16 @@
         <v>587</v>
       </c>
       <c r="D297" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E297" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F297" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G297" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8799,16 +8799,16 @@
         <v>588</v>
       </c>
       <c r="D298" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E298" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F298" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G298" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -8822,16 +8822,16 @@
         <v>589</v>
       </c>
       <c r="D299" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E299" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F299" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G299" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8845,13 +8845,13 @@
         <v>590</v>
       </c>
       <c r="D300" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E300" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F300" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -8865,13 +8865,13 @@
         <v>508</v>
       </c>
       <c r="D301" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E301" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F301" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -8885,16 +8885,16 @@
         <v>591</v>
       </c>
       <c r="D302" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E302" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F302" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G302" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -8908,13 +8908,13 @@
         <v>592</v>
       </c>
       <c r="D303" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E303" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F303" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -8928,13 +8928,13 @@
         <v>415</v>
       </c>
       <c r="D304" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E304" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F304" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -8948,13 +8948,13 @@
         <v>593</v>
       </c>
       <c r="D305" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E305" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F305" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -8968,16 +8968,16 @@
         <v>594</v>
       </c>
       <c r="D306" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E306" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F306" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G306" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -8991,13 +8991,13 @@
         <v>595</v>
       </c>
       <c r="D307" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E307" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F307" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -9011,13 +9011,13 @@
         <v>418</v>
       </c>
       <c r="D308" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E308" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F308" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -9031,13 +9031,13 @@
         <v>596</v>
       </c>
       <c r="D309" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E309" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F309" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -9051,16 +9051,16 @@
         <v>597</v>
       </c>
       <c r="D310" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E310" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F310" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G310" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -9074,13 +9074,13 @@
         <v>598</v>
       </c>
       <c r="D311" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E311" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F311" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -9094,13 +9094,13 @@
         <v>599</v>
       </c>
       <c r="D312" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E312" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F312" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -9114,13 +9114,13 @@
         <v>600</v>
       </c>
       <c r="D313" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E313" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F313" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -9134,16 +9134,16 @@
         <v>601</v>
       </c>
       <c r="D314" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E314" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F314" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G314" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -9157,13 +9157,13 @@
         <v>602</v>
       </c>
       <c r="D315" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E315" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F315" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9177,16 +9177,16 @@
         <v>335</v>
       </c>
       <c r="D316" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E316" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F316" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G316" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -9200,16 +9200,16 @@
         <v>603</v>
       </c>
       <c r="D317" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E317" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F317" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G317" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -9223,16 +9223,16 @@
         <v>349</v>
       </c>
       <c r="D318" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E318" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F318" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G318" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -9246,13 +9246,13 @@
         <v>503</v>
       </c>
       <c r="D319" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E319" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F319" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -9266,13 +9266,13 @@
         <v>449</v>
       </c>
       <c r="D320" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E320" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F320" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -9286,13 +9286,13 @@
         <v>604</v>
       </c>
       <c r="D321" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E321" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F321" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -9306,13 +9306,13 @@
         <v>605</v>
       </c>
       <c r="D322" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E322" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F322" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -9326,13 +9326,13 @@
         <v>606</v>
       </c>
       <c r="D323" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E323" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F323" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -9346,13 +9346,13 @@
         <v>607</v>
       </c>
       <c r="D324" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E324" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F324" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -9366,13 +9366,13 @@
         <v>608</v>
       </c>
       <c r="D325" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E325" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F325" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9386,13 +9386,13 @@
         <v>609</v>
       </c>
       <c r="D326" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E326" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F326" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -9406,13 +9406,13 @@
         <v>610</v>
       </c>
       <c r="D327" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E327" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F327" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -9426,13 +9426,13 @@
         <v>611</v>
       </c>
       <c r="D328" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E328" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F328" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -9446,13 +9446,13 @@
         <v>612</v>
       </c>
       <c r="D329" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E329" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F329" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -9466,13 +9466,13 @@
         <v>613</v>
       </c>
       <c r="D330" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E330" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F330" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9486,13 +9486,13 @@
         <v>614</v>
       </c>
       <c r="D331" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E331" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F331" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -9506,13 +9506,13 @@
         <v>615</v>
       </c>
       <c r="D332" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E332" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F332" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -9526,13 +9526,13 @@
         <v>616</v>
       </c>
       <c r="D333" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E333" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F333" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -9546,13 +9546,13 @@
         <v>617</v>
       </c>
       <c r="D334" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E334" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F334" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,13 +9566,13 @@
         <v>618</v>
       </c>
       <c r="D335" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E335" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F335" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9586,13 +9586,13 @@
         <v>619</v>
       </c>
       <c r="D336" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E336" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F336" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -9606,16 +9606,16 @@
         <v>620</v>
       </c>
       <c r="D337" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E337" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F337" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G337" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -9629,13 +9629,13 @@
         <v>621</v>
       </c>
       <c r="D338" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E338" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F338" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -9649,13 +9649,13 @@
         <v>519</v>
       </c>
       <c r="D339" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E339" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F339" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -9669,13 +9669,13 @@
         <v>622</v>
       </c>
       <c r="D340" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E340" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F340" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -9689,13 +9689,13 @@
         <v>623</v>
       </c>
       <c r="D341" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E341" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F341" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -9709,13 +9709,13 @@
         <v>624</v>
       </c>
       <c r="D342" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E342" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F342" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -9729,13 +9729,13 @@
         <v>520</v>
       </c>
       <c r="D343" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E343" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F343" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -9749,13 +9749,13 @@
         <v>625</v>
       </c>
       <c r="D344" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E344" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F344" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,16 +9769,16 @@
         <v>373</v>
       </c>
       <c r="D345" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F345" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G345" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -9792,13 +9792,13 @@
         <v>626</v>
       </c>
       <c r="D346" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E346" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F346" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -9812,13 +9812,13 @@
         <v>627</v>
       </c>
       <c r="D347" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E347" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F347" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -9832,13 +9832,13 @@
         <v>628</v>
       </c>
       <c r="D348" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E348" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F348" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -9852,13 +9852,13 @@
         <v>550</v>
       </c>
       <c r="D349" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E349" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F349" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -9872,13 +9872,13 @@
         <v>629</v>
       </c>
       <c r="D350" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E350" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F350" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -9892,13 +9892,13 @@
         <v>630</v>
       </c>
       <c r="D351" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E351" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F351" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -9912,16 +9912,16 @@
         <v>573</v>
       </c>
       <c r="D352" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E352" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F352" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G352" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -9935,13 +9935,13 @@
         <v>377</v>
       </c>
       <c r="D353" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E353" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F353" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -9955,13 +9955,13 @@
         <v>602</v>
       </c>
       <c r="D354" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E354" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F354" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -9975,13 +9975,13 @@
         <v>631</v>
       </c>
       <c r="D355" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E355" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F355" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -9995,13 +9995,13 @@
         <v>632</v>
       </c>
       <c r="D356" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E356" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F356" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -10015,16 +10015,16 @@
         <v>499</v>
       </c>
       <c r="D357" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F357" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G357" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
@@ -10038,13 +10038,13 @@
         <v>501</v>
       </c>
       <c r="D358" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E358" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F358" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -10058,13 +10058,13 @@
         <v>603</v>
       </c>
       <c r="D359" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F359" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -10078,16 +10078,16 @@
         <v>502</v>
       </c>
       <c r="D360" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F360" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G360" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -10101,13 +10101,13 @@
         <v>633</v>
       </c>
       <c r="D361" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E361" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F361" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -10121,16 +10121,16 @@
         <v>391</v>
       </c>
       <c r="D362" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F362" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G362" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -10144,13 +10144,13 @@
         <v>634</v>
       </c>
       <c r="D363" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F363" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -10164,16 +10164,16 @@
         <v>392</v>
       </c>
       <c r="D364" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E364" t="s">
+        <v>704</v>
+      </c>
+      <c r="F364" t="s">
         <v>705</v>
       </c>
-      <c r="F364" t="s">
-        <v>706</v>
-      </c>
       <c r="G364" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
@@ -10187,13 +10187,13 @@
         <v>635</v>
       </c>
       <c r="D365" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F365" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -10207,13 +10207,13 @@
         <v>636</v>
       </c>
       <c r="D366" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F366" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -10227,16 +10227,16 @@
         <v>637</v>
       </c>
       <c r="D367" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E367" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F367" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G367" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -10250,19 +10250,19 @@
         <v>638</v>
       </c>
       <c r="D368" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E368" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F368" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G368" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -10273,16 +10273,16 @@
         <v>639</v>
       </c>
       <c r="D369" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E369" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F369" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>21</v>
       </c>
@@ -10293,16 +10293,16 @@
         <v>640</v>
       </c>
       <c r="D370" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E370" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F370" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -10313,16 +10313,16 @@
         <v>628</v>
       </c>
       <c r="D371" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F371" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>22</v>
       </c>
@@ -10333,16 +10333,16 @@
         <v>503</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>22</v>
       </c>
@@ -10353,16 +10353,16 @@
         <v>480</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>22</v>
       </c>
@@ -10373,16 +10373,19 @@
         <v>460</v>
       </c>
       <c r="D374" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E374" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F374" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="G374" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>22</v>
       </c>
@@ -10393,16 +10396,16 @@
         <v>641</v>
       </c>
       <c r="D375" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E375" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F375" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>22</v>
       </c>
@@ -10413,16 +10416,16 @@
         <v>642</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>22</v>
       </c>
@@ -10433,16 +10436,16 @@
         <v>643</v>
       </c>
       <c r="D377" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E377" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F377" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>22</v>
       </c>
@@ -10453,16 +10456,16 @@
         <v>644</v>
       </c>
       <c r="D378" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E378" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F378" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -10473,16 +10476,16 @@
         <v>449</v>
       </c>
       <c r="D379" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E379" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F379" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>22</v>
       </c>
@@ -10493,16 +10496,16 @@
         <v>645</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>22</v>
       </c>
@@ -10513,16 +10516,16 @@
         <v>450</v>
       </c>
       <c r="D381" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F381" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>22</v>
       </c>
@@ -10533,16 +10536,16 @@
         <v>464</v>
       </c>
       <c r="D382" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E382" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F382" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>22</v>
       </c>
@@ -10553,16 +10556,16 @@
         <v>466</v>
       </c>
       <c r="D383" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E383" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F383" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>22</v>
       </c>
@@ -10573,13 +10576,13 @@
         <v>451</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="385" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10593,13 +10596,13 @@
         <v>467</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="386" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10613,13 +10616,13 @@
         <v>468</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -10633,13 +10636,13 @@
         <v>469</v>
       </c>
       <c r="D387" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E387" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F387" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -10653,13 +10656,13 @@
         <v>470</v>
       </c>
       <c r="D388" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E388" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F388" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="389" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10673,13 +10676,13 @@
         <v>471</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -10693,13 +10696,13 @@
         <v>646</v>
       </c>
       <c r="D390" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E390" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F390" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -10713,13 +10716,13 @@
         <v>605</v>
       </c>
       <c r="D391" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E391" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F391" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -10733,13 +10736,13 @@
         <v>608</v>
       </c>
       <c r="D392" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E392" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F392" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="393" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10753,53 +10756,53 @@
         <v>453</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C394" t="s">
+      <c r="B394" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D394" t="s">
-        <v>702</v>
-      </c>
-      <c r="E394" t="s">
-        <v>705</v>
-      </c>
-      <c r="F394" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="D394" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B395" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C395" t="s">
+      <c r="B395" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D395" t="s">
-        <v>701</v>
-      </c>
-      <c r="E395" t="s">
-        <v>705</v>
-      </c>
-      <c r="F395" t="s">
-        <v>711</v>
+      <c r="D395" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -10807,19 +10810,19 @@
         <v>22</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="C396" t="s">
         <v>649</v>
       </c>
       <c r="D396" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E396" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F396" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -10827,7 +10830,7 @@
         <v>22</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C397" t="s">
         <v>650</v>
@@ -10836,10 +10839,10 @@
         <v>701</v>
       </c>
       <c r="E397" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F397" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -10847,19 +10850,19 @@
         <v>22</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="C398" t="s">
-        <v>651</v>
+        <v>474</v>
       </c>
       <c r="D398" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E398" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F398" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -10867,19 +10870,19 @@
         <v>22</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c r="C399" t="s">
-        <v>474</v>
+        <v>651</v>
       </c>
       <c r="D399" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E399" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F399" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -10887,19 +10890,19 @@
         <v>22</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C400" t="s">
         <v>652</v>
       </c>
       <c r="D400" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E400" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F400" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10907,19 +10910,19 @@
         <v>22</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="C401" t="s">
-        <v>653</v>
+        <v>457</v>
       </c>
       <c r="D401" t="s">
         <v>701</v>
       </c>
       <c r="E401" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F401" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -10927,19 +10930,19 @@
         <v>22</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="C402" t="s">
-        <v>457</v>
+        <v>653</v>
       </c>
       <c r="D402" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E402" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F402" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -10947,105 +10950,108 @@
         <v>22</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
       <c r="C403" t="s">
+        <v>459</v>
+      </c>
+      <c r="D403" t="s">
+        <v>700</v>
+      </c>
+      <c r="E403" t="s">
+        <v>704</v>
+      </c>
+      <c r="F403" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D403" t="s">
-        <v>701</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="D405" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E406" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F406" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E407" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>22</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C404" t="s">
-        <v>459</v>
-      </c>
-      <c r="D404" t="s">
-        <v>701</v>
-      </c>
-      <c r="E404" t="s">
-        <v>705</v>
-      </c>
-      <c r="F404" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>23</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C405" t="s">
-        <v>573</v>
-      </c>
-      <c r="D405" t="s">
-        <v>702</v>
-      </c>
-      <c r="E405" t="s">
-        <v>705</v>
-      </c>
-      <c r="F405" t="s">
-        <v>711</v>
-      </c>
-      <c r="G405" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>23</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C406" t="s">
-        <v>655</v>
-      </c>
-      <c r="D406" t="s">
-        <v>702</v>
-      </c>
-      <c r="E406" t="s">
-        <v>705</v>
-      </c>
-      <c r="F406" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>23</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C407" t="s">
-        <v>656</v>
-      </c>
-      <c r="D407" t="s">
-        <v>702</v>
-      </c>
-      <c r="E407" t="s">
-        <v>706</v>
-      </c>
-      <c r="F407" t="s">
-        <v>705</v>
-      </c>
-      <c r="G407" t="s">
-        <v>724</v>
+      <c r="F407" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -11053,22 +11059,22 @@
         <v>23</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C408" t="s">
-        <v>657</v>
+        <v>498</v>
       </c>
       <c r="D408" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E408" t="s">
         <v>706</v>
       </c>
       <c r="F408" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G408" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -11076,22 +11082,19 @@
         <v>23</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="C409" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="D409" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E409" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F409" t="s">
-        <v>706</v>
-      </c>
-      <c r="G409" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -11099,19 +11102,19 @@
         <v>23</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="C410" t="s">
-        <v>524</v>
+        <v>330</v>
       </c>
       <c r="D410" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E410" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F410" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -11119,19 +11122,19 @@
         <v>23</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C411" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="D411" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E411" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F411" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -11139,19 +11142,19 @@
         <v>23</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="C412" t="s">
         <v>658</v>
       </c>
       <c r="D412" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E412" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F412" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -11159,19 +11162,22 @@
         <v>23</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="C413" t="s">
-        <v>659</v>
+        <v>499</v>
       </c>
       <c r="D413" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E413" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F413" t="s">
-        <v>711</v>
+        <v>704</v>
+      </c>
+      <c r="G413" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -11179,22 +11185,22 @@
         <v>23</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="C414" t="s">
-        <v>499</v>
+        <v>335</v>
       </c>
       <c r="D414" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E414" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F414" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G414" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -11202,22 +11208,19 @@
         <v>23</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="C415" t="s">
-        <v>335</v>
+        <v>659</v>
       </c>
       <c r="D415" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E415" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F415" t="s">
-        <v>711</v>
-      </c>
-      <c r="G415" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -11225,19 +11228,22 @@
         <v>23</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="C416" t="s">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="D416" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E416" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F416" t="s">
-        <v>711</v>
+        <v>710</v>
+      </c>
+      <c r="G416" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -11245,22 +11251,22 @@
         <v>23</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="C417" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="D417" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E417" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F417" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G417" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -11268,22 +11274,19 @@
         <v>23</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="C418" t="s">
         <v>661</v>
       </c>
       <c r="D418" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E418" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F418" t="s">
-        <v>705</v>
-      </c>
-      <c r="G418" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -11291,19 +11294,22 @@
         <v>23</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="C419" t="s">
         <v>662</v>
       </c>
       <c r="D419" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E419" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F419" t="s">
-        <v>717</v>
+        <v>710</v>
+      </c>
+      <c r="G419" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -11311,22 +11317,22 @@
         <v>23</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="C420" t="s">
-        <v>663</v>
+        <v>350</v>
       </c>
       <c r="D420" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E420" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F420" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G420" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -11334,22 +11340,19 @@
         <v>23</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="C421" t="s">
-        <v>350</v>
+        <v>663</v>
       </c>
       <c r="D421" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E421" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F421" t="s">
-        <v>711</v>
-      </c>
-      <c r="G421" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -11357,19 +11360,22 @@
         <v>23</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C422" t="s">
-        <v>664</v>
+        <v>534</v>
       </c>
       <c r="D422" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E422" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F422" t="s">
-        <v>711</v>
+        <v>710</v>
+      </c>
+      <c r="G422" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -11377,22 +11383,22 @@
         <v>23</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C423" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D423" t="s">
         <v>701</v>
       </c>
       <c r="E423" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F423" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G423" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -11400,22 +11406,19 @@
         <v>23</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="C424" t="s">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="D424" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E424" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F424" t="s">
-        <v>711</v>
-      </c>
-      <c r="G424" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -11423,19 +11426,19 @@
         <v>23</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C425" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="D425" t="s">
         <v>701</v>
       </c>
       <c r="E425" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F425" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -11443,19 +11446,19 @@
         <v>23</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C426" t="s">
-        <v>358</v>
+        <v>542</v>
       </c>
       <c r="D426" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E426" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F426" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -11463,19 +11466,19 @@
         <v>23</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="C427" t="s">
-        <v>542</v>
+        <v>664</v>
       </c>
       <c r="D427" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E427" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F427" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -11483,19 +11486,22 @@
         <v>23</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C428" t="s">
         <v>665</v>
       </c>
       <c r="D428" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E428" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F428" t="s">
-        <v>711</v>
+        <v>710</v>
+      </c>
+      <c r="G428" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -11503,22 +11509,19 @@
         <v>23</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="C429" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="D429" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E429" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F429" t="s">
-        <v>711</v>
-      </c>
-      <c r="G429" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -11526,19 +11529,19 @@
         <v>23</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C430" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D430" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E430" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F430" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -11546,19 +11549,19 @@
         <v>23</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="C431" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="D431" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E431" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F431" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -11566,19 +11569,19 @@
         <v>23</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C432" t="s">
-        <v>592</v>
+        <v>511</v>
       </c>
       <c r="D432" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E432" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F432" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -11586,19 +11589,19 @@
         <v>23</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="C433" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="D433" t="s">
         <v>701</v>
       </c>
       <c r="E433" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F433" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -11606,19 +11609,19 @@
         <v>23</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C434" t="s">
-        <v>575</v>
+        <v>666</v>
       </c>
       <c r="D434" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E434" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F434" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -11626,19 +11629,19 @@
         <v>23</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C435" t="s">
         <v>667</v>
       </c>
       <c r="D435" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E435" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F435" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -11646,19 +11649,22 @@
         <v>23</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="C436" t="s">
-        <v>668</v>
+        <v>577</v>
       </c>
       <c r="D436" t="s">
         <v>701</v>
       </c>
       <c r="E436" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F436" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="G436" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -11666,22 +11672,19 @@
         <v>23</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="C437" t="s">
-        <v>577</v>
+        <v>668</v>
       </c>
       <c r="D437" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E437" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F437" t="s">
-        <v>711</v>
-      </c>
-      <c r="G437" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -11689,19 +11692,22 @@
         <v>23</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="C438" t="s">
         <v>669</v>
       </c>
       <c r="D438" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E438" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F438" t="s">
-        <v>711</v>
+        <v>710</v>
+      </c>
+      <c r="G438" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -11709,22 +11715,19 @@
         <v>23</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C439" t="s">
         <v>670</v>
       </c>
       <c r="D439" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E439" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F439" t="s">
-        <v>711</v>
-      </c>
-      <c r="G439" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -11732,7 +11735,7 @@
         <v>23</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C440" t="s">
         <v>671</v>
@@ -11741,10 +11744,13 @@
         <v>702</v>
       </c>
       <c r="E440" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F440" t="s">
-        <v>705</v>
+        <v>710</v>
+      </c>
+      <c r="G440" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -11752,22 +11758,19 @@
         <v>23</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="C441" t="s">
         <v>672</v>
       </c>
       <c r="D441" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E441" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F441" t="s">
-        <v>711</v>
-      </c>
-      <c r="G441" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -11775,19 +11778,19 @@
         <v>23</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="C442" t="s">
         <v>673</v>
       </c>
       <c r="D442" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E442" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F442" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -11795,7 +11798,7 @@
         <v>23</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C443" t="s">
         <v>674</v>
@@ -11804,10 +11807,10 @@
         <v>701</v>
       </c>
       <c r="E443" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F443" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -11815,19 +11818,19 @@
         <v>23</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C444" t="s">
         <v>675</v>
       </c>
       <c r="D444" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E444" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F444" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -11835,19 +11838,19 @@
         <v>23</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C445" t="s">
         <v>676</v>
       </c>
       <c r="D445" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E445" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F445" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -11855,19 +11858,19 @@
         <v>23</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C446" t="s">
         <v>677</v>
       </c>
       <c r="D446" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E446" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F446" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -11875,19 +11878,19 @@
         <v>23</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C447" t="s">
         <v>678</v>
       </c>
       <c r="D447" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E447" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F447" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -11895,7 +11898,7 @@
         <v>23</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="C448" t="s">
         <v>679</v>
@@ -11904,10 +11907,13 @@
         <v>701</v>
       </c>
       <c r="E448" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F448" t="s">
-        <v>711</v>
+        <v>718</v>
+      </c>
+      <c r="G448" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -11915,22 +11921,19 @@
         <v>23</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="C449" t="s">
         <v>680</v>
       </c>
       <c r="D449" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E449" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F449" t="s">
-        <v>719</v>
-      </c>
-      <c r="G449" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -11938,7 +11941,7 @@
         <v>23</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="C450" t="s">
         <v>681</v>
@@ -11947,10 +11950,10 @@
         <v>701</v>
       </c>
       <c r="E450" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F450" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -11958,19 +11961,22 @@
         <v>23</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="C451" t="s">
-        <v>682</v>
+        <v>522</v>
       </c>
       <c r="D451" t="s">
         <v>702</v>
       </c>
       <c r="E451" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F451" t="s">
-        <v>711</v>
+        <v>704</v>
+      </c>
+      <c r="G451" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
@@ -11978,22 +11984,19 @@
         <v>23</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C452" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="D452" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E452" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F452" t="s">
-        <v>705</v>
-      </c>
-      <c r="G452" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -12001,27 +12004,27 @@
         <v>23</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="C453" t="s">
-        <v>580</v>
+        <v>682</v>
       </c>
       <c r="D453" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E453" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F453" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C454" t="s">
         <v>683</v>
@@ -12030,10 +12033,13 @@
         <v>702</v>
       </c>
       <c r="E454" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F454" t="s">
-        <v>720</v>
+        <v>704</v>
+      </c>
+      <c r="G454" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -12041,22 +12047,19 @@
         <v>24</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C455" t="s">
         <v>684</v>
       </c>
       <c r="D455" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E455" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="F455" t="s">
-        <v>705</v>
-      </c>
-      <c r="G455" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -12064,19 +12067,19 @@
         <v>24</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>309</v>
+        <v>143</v>
       </c>
       <c r="C456" t="s">
-        <v>685</v>
+        <v>454</v>
       </c>
       <c r="D456" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E456" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F456" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -12084,19 +12087,19 @@
         <v>24</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="C457" t="s">
-        <v>454</v>
+        <v>685</v>
       </c>
       <c r="D457" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E457" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F457" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -12104,19 +12107,19 @@
         <v>24</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C458" t="s">
         <v>686</v>
       </c>
       <c r="D458" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E458" t="s">
         <v>705</v>
       </c>
       <c r="F458" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -12124,19 +12127,19 @@
         <v>24</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C459" t="s">
         <v>687</v>
       </c>
       <c r="D459" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E459" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F459" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -12144,7 +12147,7 @@
         <v>24</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C460" t="s">
         <v>688</v>
@@ -12153,10 +12156,10 @@
         <v>702</v>
       </c>
       <c r="E460" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F460" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -12164,19 +12167,22 @@
         <v>24</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C461" t="s">
         <v>689</v>
       </c>
       <c r="D461" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E461" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F461" t="s">
-        <v>705</v>
+        <v>704</v>
+      </c>
+      <c r="G461" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -12184,7 +12190,7 @@
         <v>24</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C462" t="s">
         <v>690</v>
@@ -12193,13 +12199,13 @@
         <v>702</v>
       </c>
       <c r="E462" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F462" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G462" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,22 +12213,22 @@
         <v>24</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C463" t="s">
         <v>691</v>
       </c>
       <c r="D463" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E463" t="s">
         <v>705</v>
       </c>
       <c r="F463" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G463" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -12230,22 +12236,22 @@
         <v>24</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C464" t="s">
         <v>692</v>
       </c>
       <c r="D464" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E464" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F464" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G464" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -12253,22 +12259,19 @@
         <v>24</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C465" t="s">
         <v>693</v>
       </c>
       <c r="D465" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E465" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F465" t="s">
-        <v>705</v>
-      </c>
-      <c r="G465" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -12276,19 +12279,19 @@
         <v>24</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C466" t="s">
         <v>694</v>
       </c>
       <c r="D466" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E466" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="F466" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -12296,19 +12299,22 @@
         <v>24</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C467" t="s">
         <v>695</v>
       </c>
       <c r="D467" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E467" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F467" t="s">
-        <v>705</v>
+        <v>704</v>
+      </c>
+      <c r="G467" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -12316,22 +12322,19 @@
         <v>24</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C468" t="s">
         <v>696</v>
       </c>
       <c r="D468" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E468" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F468" t="s">
-        <v>705</v>
-      </c>
-      <c r="G468" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -12339,7 +12342,7 @@
         <v>24</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C469" t="s">
         <v>697</v>
@@ -12348,10 +12351,13 @@
         <v>702</v>
       </c>
       <c r="E469" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F469" t="s">
-        <v>705</v>
+        <v>704</v>
+      </c>
+      <c r="G469" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -12359,13 +12365,13 @@
         <v>24</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C470" t="s">
         <v>698</v>
       </c>
       <c r="D470" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E470" t="s">
         <v>705</v>
@@ -12374,7 +12380,7 @@
         <v>705</v>
       </c>
       <c r="G470" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -12382,42 +12388,19 @@
         <v>24</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C471" t="s">
         <v>699</v>
       </c>
       <c r="D471" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E471" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F471" t="s">
-        <v>706</v>
-      </c>
-      <c r="G471" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>24</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C472" t="s">
-        <v>700</v>
-      </c>
-      <c r="D472" t="s">
-        <v>702</v>
-      </c>
-      <c r="E472" t="s">
-        <v>705</v>
-      </c>
-      <c r="F472" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
